--- a/users.xlsx
+++ b/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\3 rd year 2nd semester\movie-ticket-booking-backend\MovieApp-backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SPM PROJECT B\backend\MovieApp-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DACC8C6-226F-4D0F-9CB7-5E8BAED7773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A14CF97-CF44-473D-A449-6284AAEC5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D1C9057B-7EE2-42BD-B9DC-6FBD70A9CCB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D1C9057B-7EE2-42BD-B9DC-6FBD70A9CCB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Yasindu Ramanayake</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Pubudi Fernando</t>
+  </si>
+  <si>
+    <t>pubufer@gmail.com</t>
+  </si>
+  <si>
+    <t>Pubu@123</t>
+  </si>
+  <si>
+    <t>0721369110</t>
+  </si>
+  <si>
+    <t>0713453198</t>
+  </si>
+  <si>
+    <t>0779201653</t>
   </si>
 </sst>
 </file>
@@ -102,9 +120,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,18 +439,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAF07D3-49FF-4468-A55F-8426744543BB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -444,11 +463,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1">
-        <v>7136002110</v>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,15 +478,34 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>713453110</v>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{3D9BE3E2-BA42-4513-9A57-FA9D68A5BA0A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{029F48A7-1ADB-4C10-B015-BE912129F86C}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{ED6C2994-A1B6-4DB5-AE4B-17FF276F5621}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SPM PROJECT B\backend\MovieApp-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A14CF97-CF44-473D-A449-6284AAEC5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2FED93-ED70-4A9D-99E8-9364F0961F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D1C9057B-7EE2-42BD-B9DC-6FBD70A9CCB4}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\3 rd year 2nd semester\movie-ticket-booking-backend\MovieApp-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DACC8C6-226F-4D0F-9CB7-5E8BAED7773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93438AE-A7AA-425F-8B33-8E535FDC20DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D1C9057B-7EE2-42BD-B9DC-6FBD70A9CCB4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Yasindu Ramanayake</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>0713453110</t>
+  </si>
+  <si>
+    <t>Pubudi Aathmaja</t>
+  </si>
+  <si>
+    <t>pubudi.aathmaja@gmail.com</t>
+  </si>
+  <si>
+    <t>Pubudi123#</t>
+  </si>
+  <si>
+    <t>0763457876</t>
+  </si>
+  <si>
+    <t>0713600210</t>
   </si>
 </sst>
 </file>
@@ -102,9 +120,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAF07D3-49FF-4468-A55F-8426744543BB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,8 +463,8 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1">
-        <v>7136002110</v>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -461,13 +480,31 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>713453110</v>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{3D9BE3E2-BA42-4513-9A57-FA9D68A5BA0A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{4F34318C-DCB3-47F6-A907-C42196A1D08A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\3 rd year 2nd semester\movie-ticket-booking-backend\MovieApp-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93438AE-A7AA-425F-8B33-8E535FDC20DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCFD686-3618-45A8-BFC9-D2E0D8B9A81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D1C9057B-7EE2-42BD-B9DC-6FBD70A9CCB4}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
